--- a/MyKitchen/_ADocumentation/Development_Matrix.xlsx
+++ b/MyKitchen/_ADocumentation/Development_Matrix.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matte\source\repos\MyKitchen\MyKitchen\_ADocumentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B5A8F35-2C47-41B8-96FE-C0AD90DCC036}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{619E50B2-98D3-4955-ADF2-39FC519C9B80}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1935" yWindow="1935" windowWidth="23040" windowHeight="11820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/MyKitchen/_ADocumentation/Development_Matrix.xlsx
+++ b/MyKitchen/_ADocumentation/Development_Matrix.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matte\source\repos\MyKitchen\MyKitchen\_ADocumentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{619E50B2-98D3-4955-ADF2-39FC519C9B80}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0565DECE-BFE5-40D5-9234-0730C7BA0065}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1935" yWindow="1935" windowWidth="23040" windowHeight="11820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tasks" sheetId="1" r:id="rId1"/>
+    <sheet name="Tests" sheetId="2" r:id="rId2"/>
+    <sheet name="Ideas" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="14">
   <si>
     <t>Description</t>
   </si>
@@ -46,6 +48,27 @@
   </si>
   <si>
     <t>Food Items and Meals should also be divided by user</t>
+  </si>
+  <si>
+    <t>Check Meal creation intuitive and clear</t>
+  </si>
+  <si>
+    <t>Check Food Item management intuitive and clear</t>
+  </si>
+  <si>
+    <t>Check User Support For Food Items</t>
+  </si>
+  <si>
+    <t>Check User Support For Meals</t>
+  </si>
+  <si>
+    <t>create the shortcuit ability to crfeate new foods with control + n [anything to avoid having to click th emouse]</t>
+  </si>
+  <si>
+    <t>add filters to food items</t>
+  </si>
+  <si>
+    <t>add sorting to food items</t>
   </si>
 </sst>
 </file>
@@ -371,10 +394,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -414,8 +437,93 @@
         <v>4</v>
       </c>
     </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AE53BFD-BC1F-4C97-AF05-864BBA9154A8}">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="45.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88C95EB6-97DD-4B8D-BD89-BE7B160B8B3C}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/MyKitchen/_ADocumentation/Development_Matrix.xlsx
+++ b/MyKitchen/_ADocumentation/Development_Matrix.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matte\source\repos\MyKitchen\MyKitchen\_ADocumentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0565DECE-BFE5-40D5-9234-0730C7BA0065}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC71FF74-E664-4C86-A579-12BCAA5616BD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1935" yWindow="1935" windowWidth="23040" windowHeight="11820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3675" yWindow="3675" windowWidth="21600" windowHeight="11423" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tasks" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
   <si>
     <t>Description</t>
   </si>
@@ -69,6 +69,12 @@
   </si>
   <si>
     <t>add sorting to food items</t>
+  </si>
+  <si>
+    <t>MEALS SHOW ALL ITEMS in the GRID!!! - see if we implement this using a selectmany!!! If YES, blog about this! This is the next step of our process.!</t>
+  </si>
+  <si>
+    <t>need to add userid to dbo.meals table</t>
   </si>
 </sst>
 </file>
@@ -394,20 +400,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="48.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="48.265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.3984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -418,7 +424,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -429,7 +435,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -437,14 +443,24 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -461,13 +477,13 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="45.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="45.3984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -475,22 +491,22 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -508,9 +524,9 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -518,7 +534,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>11</v>
       </c>

--- a/MyKitchen/_ADocumentation/Development_Matrix.xlsx
+++ b/MyKitchen/_ADocumentation/Development_Matrix.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matte\source\repos\MyKitchen\MyKitchen\_ADocumentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC71FF74-E664-4C86-A579-12BCAA5616BD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8303713-7A09-4342-81DB-CF773CB24BA4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3675" yWindow="3675" windowWidth="21600" windowHeight="11423" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tasks" sheetId="1" r:id="rId1"/>
@@ -403,17 +403,17 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="48.265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.3984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="133.28515625" customWidth="1"/>
+    <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -424,7 +424,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -435,7 +435,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -443,22 +443,22 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -477,13 +477,13 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="45.3984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.3984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="45.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -491,22 +491,22 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -524,9 +524,9 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -534,7 +534,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>11</v>
       </c>
